--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\每日填报\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66449\Desktop\填报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD83006D-DEFE-4A90-A347-618AC9D35569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E46D0-AD03-4A9F-B168-D8754F2A2818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2604" windowWidth="17280" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3288" yWindow="2880" windowWidth="17280" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve"> id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系赵🐕？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,6 +87,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>632886752186540a0fb177df</t>
+  </si>
+  <si>
+    <t>63292a61a6ea452aaf90f859</t>
+  </si>
+  <si>
     <t>是否处于隔离状态(暂不使用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,15 +105,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系**？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1235</t>
+    <t>杨锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求体文件路径名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/yf.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,9 +467,10 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -488,33 +499,36 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12345</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2">
         <v>121.52575</v>
@@ -523,10 +537,13 @@
         <v>38.870809999999999</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66449\Desktop\填报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E46D0-AD03-4A9F-B168-D8754F2A2818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51432AFD-A180-4CEB-BA99-AC4E0D5E0127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3288" yWindow="2880" windowWidth="17280" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve"> id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,15 +105,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求体文件路径名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data/yf.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头imprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oWRkU0X0y2TYFRDqFFdGW153oLM0</t>
+  </si>
+  <si>
+    <t>wStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,10 +474,11 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,10 +513,13 @@
         <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -540,10 +551,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
